--- a/extraFiles/Capstone Project Sprint -Tasks.xlsx
+++ b/extraFiles/Capstone Project Sprint -Tasks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Assignments\Semester 4\Capstone\Project\Trend_Treasures\extraFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B1C2478-5179-42B1-9294-97DD3942F466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EC2D28-BAC4-44EA-86CA-B520A22D8EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E2A7AADE-2C1E-42C4-8B7C-2D15C1FD6911}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>Ravinder singh</t>
   </si>
@@ -133,13 +133,64 @@
   </si>
   <si>
     <t>Trend Treasures (Sprint 1 Deliverables)</t>
+  </si>
+  <si>
+    <t>Trend Treasures (Sprint 2 Deliverables)</t>
+  </si>
+  <si>
+    <t>Products API</t>
+  </si>
+  <si>
+    <t>Sorting API</t>
+  </si>
+  <si>
+    <t>Get Product details API</t>
+  </si>
+  <si>
+    <t>Implementing Products API</t>
+  </si>
+  <si>
+    <t>Implementing Sorting API</t>
+  </si>
+  <si>
+    <t>Implementing Products details API</t>
+  </si>
+  <si>
+    <t>Filter Product Categories API</t>
+  </si>
+  <si>
+    <t>Delete from Cart API</t>
+  </si>
+  <si>
+    <t>Add to cart API</t>
+  </si>
+  <si>
+    <t>Implementing Filter Products API</t>
+  </si>
+  <si>
+    <t>Implementing Cart API</t>
+  </si>
+  <si>
+    <t>Update Cart API</t>
+  </si>
+  <si>
+    <t>Order Page Frontend Implementation</t>
+  </si>
+  <si>
+    <t>Checkout Page</t>
+  </si>
+  <si>
+    <t>Tesing ALL API</t>
+  </si>
+  <si>
+    <t>Bugs : Error- Cart Addition</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,8 +238,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,8 +260,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -225,11 +290,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -243,6 +341,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,20 +665,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AA0E73-DDC5-4BBC-BE2D-D4CE15271FF5}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="33.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -802,8 +910,158 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
+    <row r="16" spans="1:6" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A17" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="2">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>5</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="2">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>6</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="3"/>
+      <c r="B24" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>

--- a/extraFiles/Capstone Project Sprint -Tasks.xlsx
+++ b/extraFiles/Capstone Project Sprint -Tasks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Assignments\Semester 4\Capstone\Project\Trend_Treasures\extraFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EC2D28-BAC4-44EA-86CA-B520A22D8EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FACC3D-C363-4ECB-BDD8-93E229D5CAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E2A7AADE-2C1E-42C4-8B7C-2D15C1FD6911}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
   <si>
     <t>Ravinder singh</t>
   </si>
@@ -184,13 +184,105 @@
   </si>
   <si>
     <t>Bugs : Error- Cart Addition</t>
+  </si>
+  <si>
+    <t>Trend Treasures (Sprint 3 Deliverables)</t>
+  </si>
+  <si>
+    <t>Paymant Gateway API</t>
+  </si>
+  <si>
+    <t>Test Paymant Gateway API</t>
+  </si>
+  <si>
+    <t>Delete Prodct API</t>
+  </si>
+  <si>
+    <t>Chckout API</t>
+  </si>
+  <si>
+    <t>Sale Graph</t>
+  </si>
+  <si>
+    <t>Update Product API</t>
+  </si>
+  <si>
+    <t>Change Order Status API</t>
+  </si>
+  <si>
+    <t>Paypal Button: Front End</t>
+  </si>
+  <si>
+    <t>Update Product Frontend</t>
+  </si>
+  <si>
+    <t>Delete Order</t>
+  </si>
+  <si>
+    <t>Admin dashboard Menu Bar</t>
+  </si>
+  <si>
+    <t>Admin dashboard Side Bar</t>
+  </si>
+  <si>
+    <t>Add New Product Frontend</t>
+  </si>
+  <si>
+    <t>Add New Product FrontEnd</t>
+  </si>
+  <si>
+    <t>Add new Product API</t>
+  </si>
+  <si>
+    <t>Display Products API</t>
+  </si>
+  <si>
+    <t>Display All Products Frontend</t>
+  </si>
+  <si>
+    <t>Display Orders Frontend</t>
+  </si>
+  <si>
+    <t>Order Summary Fronend</t>
+  </si>
+  <si>
+    <t>Order Summary API</t>
+  </si>
+  <si>
+    <t>Test Order Summary API</t>
+  </si>
+  <si>
+    <t>Test Add New Product API</t>
+  </si>
+  <si>
+    <t>Test Update Product API</t>
+  </si>
+  <si>
+    <t>Test Chagnge Order Status API</t>
+  </si>
+  <si>
+    <t>Display Most popular product-Admin dashboard</t>
+  </si>
+  <si>
+    <t>Sort Products API</t>
+  </si>
+  <si>
+    <t>Admin Dashboard: Total Products, 
+Total Orders, Total Customers</t>
+  </si>
+  <si>
+    <t>Creating PayPal Developer Account</t>
+  </si>
+  <si>
+    <t>Load Payment (Paypal Page) and 
+Receive Payment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,30 +316,22 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="1"/>
+      <sz val="14"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="26"/>
+      <sz val="36"/>
       <color theme="4" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,8 +350,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -290,67 +392,42 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,46 +742,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AA0E73-DDC5-4BBC-BE2D-D4CE15271FF5}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E22"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="36.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="41.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="1"/>
     <col min="6" max="6" width="38.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33.6" x14ac:dyDescent="0.65">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" ht="46.2" x14ac:dyDescent="0.85">
+      <c r="A1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -910,29 +987,29 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="33.6" x14ac:dyDescent="0.65">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:6" ht="46.2" x14ac:dyDescent="0.85">
+      <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A17" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="9"/>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="7" t="s">
+      <c r="D17" s="10"/>
+      <c r="E17" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
@@ -1048,7 +1125,7 @@
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="3"/>
@@ -1056,8 +1133,241 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
+    <row r="27" spans="1:6" ht="46.2" x14ac:dyDescent="0.85">
+      <c r="A27" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A28" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="1:6" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>1</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>2</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>3</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="2">
+        <v>3</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>4</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="2">
+        <v>4</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="2">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>5</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="5">
+        <v>5</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="5">
+        <v>5</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>6</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="2">
+        <v>6</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="2">
+        <v>6</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>7</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="2">
+        <v>7</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="2">
+        <v>7</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>8</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="2">
+        <v>8</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="2">
+        <v>8</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <v>9</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="2">
+        <v>9</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="2">
+        <v>9</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>10</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>11</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:D17"/>
@@ -1065,7 +1375,6 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/extraFiles/Capstone Project Sprint -Tasks.xlsx
+++ b/extraFiles/Capstone Project Sprint -Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Assignments\Semester 4\Capstone\Project\Trend_Treasures\extraFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FACC3D-C363-4ECB-BDD8-93E229D5CAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5783B73-89D1-46BF-8E19-20E766498553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E2A7AADE-2C1E-42C4-8B7C-2D15C1FD6911}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="98">
   <si>
     <t>Ravinder singh</t>
   </si>
@@ -276,6 +276,60 @@
   <si>
     <t>Load Payment (Paypal Page) and 
 Receive Payment</t>
+  </si>
+  <si>
+    <t>Trend Treasures (Sprint 4 Deliverables)</t>
+  </si>
+  <si>
+    <t>Review Products API</t>
+  </si>
+  <si>
+    <t>Submit Product Review Front end</t>
+  </si>
+  <si>
+    <t>Display All Reviews of given Product</t>
+  </si>
+  <si>
+    <t>Responsivness</t>
+  </si>
+  <si>
+    <t>User Profile API</t>
+  </si>
+  <si>
+    <t>Testing All APIs</t>
+  </si>
+  <si>
+    <t>User Profile Page Frontend</t>
+  </si>
+  <si>
+    <t>Filter Orders API</t>
+  </si>
+  <si>
+    <t>Track Order Frontend</t>
+  </si>
+  <si>
+    <t>Contact Us</t>
+  </si>
+  <si>
+    <t>About Us</t>
+  </si>
+  <si>
+    <t>Track Order API</t>
+  </si>
+  <si>
+    <t>All Orders API</t>
+  </si>
+  <si>
+    <t>Orders Summary Frontend</t>
+  </si>
+  <si>
+    <t>Update user profile API</t>
+  </si>
+  <si>
+    <t>Update user profile Frontedn</t>
+  </si>
+  <si>
+    <t>Promo Video</t>
   </si>
 </sst>
 </file>
@@ -416,6 +470,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -423,9 +480,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -742,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AA0E73-DDC5-4BBC-BE2D-D4CE15271FF5}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -760,28 +814,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.2" x14ac:dyDescent="0.85">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -988,28 +1042,28 @@
       <c r="F13" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="46.2" x14ac:dyDescent="0.85">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11" t="s">
+      <c r="D17" s="11"/>
+      <c r="E17" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="11"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
@@ -1134,28 +1188,28 @@
       <c r="F24" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="46.2" x14ac:dyDescent="0.85">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10" t="s">
+      <c r="B28" s="10"/>
+      <c r="C28" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11" t="s">
+      <c r="D28" s="11"/>
+      <c r="E28" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="11"/>
+      <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
@@ -1361,8 +1415,216 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
+    <row r="42" spans="1:6" ht="46.2" x14ac:dyDescent="0.85">
+      <c r="A42" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A43" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" s="12"/>
+    </row>
+    <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>1</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="5">
+        <v>1</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>2</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="2">
+        <v>2</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <v>3</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="2">
+        <v>3</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="2">
+        <v>3</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <v>4</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="2">
+        <v>4</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="2">
+        <v>4</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A48" s="5">
+        <v>5</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="5">
+        <v>5</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" s="5">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>6</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="2">
+        <v>6</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49" s="2">
+        <v>6</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
+        <v>7</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="2">
+        <v>7</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" s="2">
+        <v>7</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <v>8</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="2">
+        <v>8</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A53" s="2"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A54" s="2"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="16">
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A27:F27"/>
     <mergeCell ref="A28:B28"/>
